--- a/biology/Botanique/Asplenium_jahandiezii/Asplenium_jahandiezii.xlsx
+++ b/biology/Botanique/Asplenium_jahandiezii/Asplenium_jahandiezii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doradille du Verdon, Doradille de Jahandiez
-Asplenium jahandiezii , appelée Doradille du Verdon, Doradille de Jahandiez  est une fougère de la famille des Aspleniaceae[1],[2],[3].
+Asplenium jahandiezii , appelée Doradille du Verdon, Doradille de Jahandiez  est une fougère de la famille des Aspleniaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rachis entièrement vert. Pennes partiellement soudé à ce dernier. Petites frondes longues de 5 à 10 cm. Limbe glabre[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rachis entièrement vert. Pennes partiellement soudé à ce dernier. Petites frondes longues de 5 à 10 cm. Limbe glabre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce endémique des gorges du Verdon dans les départements du Var et des Alpes-de-Haute-Provence. On trouve cette petite fougère accrochée sur les falaises bordant les gorges. Elle est souvent dans un environnement sombre, à l'ombre des parois et de la végétation.
 </t>
@@ -574,7 +590,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aménagements routiers, les ouvertures de voies d'escalade et les collectionneurs indélicats menacent cette espèce rare et protégée au niveau national (annexe 1)
 </t>
